--- a/Asset Registry System (ARS)/DaSSCo ARS Phase 3 work status overview_20241211.xlsx
+++ b/Asset Registry System (ARS)/DaSSCo ARS Phase 3 work status overview_20241211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/btw897_ku_dk/Documents/DaSSCo-Tranche-1-work/Asset Registry System (ARS)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{C50839E1-8DEC-4509-A440-77E90DB3D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5342197-9A44-4B9F-AFA5-A0CF5C9FCE1E}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{C50839E1-8DEC-4509-A440-77E90DB3D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F73988-4B43-496B-825E-CC5DBA90EA72}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8303F33-A3AC-4B5D-B105-B60CD2BFE9AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{D8303F33-A3AC-4B5D-B105-B60CD2BFE9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>Status</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>WP 2C</t>
+  </si>
+  <si>
+    <t>Hours actual (billed)</t>
+  </si>
+  <si>
+    <t>Remaining</t>
   </si>
   <si>
     <r>
@@ -303,14 +309,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>October 2024</t>
+      <t>December 2024</t>
     </r>
   </si>
   <si>
-    <t>Hours actual (billed)</t>
-  </si>
-  <si>
-    <t>Remaining</t>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -910,7 +913,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -950,10 +953,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1295,7 +1298,7 @@
       </c>
       <c r="G16" s="16">
         <f>(Cost!I24/2200000)*100</f>
-        <v>80.227617727272715</v>
+        <v>84.782733636363631</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
@@ -1329,7 +1332,7 @@
       </c>
       <c r="G18" s="16">
         <f>((G19+2200000)/2200000)*100</f>
-        <v>101.22457656702375</v>
+        <v>105.89359553627114</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
@@ -1338,7 +1341,7 @@
       </c>
       <c r="G19" s="16">
         <f>(((Cost!H24/'Hours by consultant'!H24)*(G14-H14))+Cost!H24)-2200000</f>
-        <v>26940.684474522248</v>
+        <v>129659.10179796489</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1347,7 +1350,7 @@
       </c>
       <c r="G20" s="30">
         <f>G19-(2420000-2200000)</f>
-        <v>-193059.31552547775</v>
+        <v>-90340.89820203511</v>
       </c>
     </row>
   </sheetData>
@@ -1361,10 +1364,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1914,7 +1917,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2163,11 +2166,25 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
+      <c r="B11">
+        <v>74</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="I11" s="1">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -2288,7 +2305,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B2:B22)</f>
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:G24" si="1">SUM(C2:C22)</f>
@@ -2296,7 +2313,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>220.25</v>
+        <v>231.25</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
@@ -2312,11 +2329,11 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>1664.2</v>
+        <v>1749.2</v>
       </c>
       <c r="I24" s="1">
         <f>SUM(I2:I22)</f>
-        <v>1588.7</v>
+        <v>1673.7</v>
       </c>
     </row>
   </sheetData>
@@ -2329,10 +2346,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2591,11 +2608,25 @@
       <c r="A11" s="37" t="s">
         <v>33</v>
       </c>
+      <c r="B11" s="34">
+        <v>85040.8</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>15171.75</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
       <c r="H11" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="36"/>
+        <v>100212.55</v>
+      </c>
+      <c r="I11" s="36">
+        <v>100212.55</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
@@ -2716,7 +2747,7 @@
       </c>
       <c r="B24" s="36">
         <f>SUM(B2:B22)</f>
-        <v>567704.80000000005</v>
+        <v>652745.60000000009</v>
       </c>
       <c r="C24" s="36">
         <f>SUM(C2:C22)</f>
@@ -2724,7 +2755,7 @@
       </c>
       <c r="D24" s="36">
         <f>SUM(D2:D22)</f>
-        <v>303779.82</v>
+        <v>318951.57</v>
       </c>
       <c r="E24" s="36">
         <f t="shared" ref="E24:G24" si="2">SUM(E2:E22)</f>
@@ -2740,11 +2771,11 @@
       </c>
       <c r="H24" s="36">
         <f t="shared" si="1"/>
-        <v>1765007.59</v>
+        <v>1865220.1400000001</v>
       </c>
       <c r="I24" s="36">
         <f>SUM(I2:I22)</f>
-        <v>1765007.5899999999</v>
+        <v>1865220.14</v>
       </c>
     </row>
   </sheetData>
@@ -2754,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D902FF5-61F4-46B3-995F-2913403838D0}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2765,9 +2796,9 @@
     <col min="1" max="1" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -2779,7 +2810,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -2810,13 +2841,16 @@
       <c r="J3" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -2826,8 +2860,9 @@
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>57</v>
       </c>
@@ -2842,13 +2877,14 @@
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="33">
-        <v>18.5</v>
+        <v>74</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -2858,8 +2894,9 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
@@ -2874,6 +2911,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Asset Registry System (ARS)/DaSSCo ARS Phase 3 work status overview_20241211.xlsx
+++ b/Asset Registry System (ARS)/DaSSCo ARS Phase 3 work status overview_20241211.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/btw897_ku_dk/Documents/DaSSCo-Tranche-1-work/Asset Registry System (ARS)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{C50839E1-8DEC-4509-A440-77E90DB3D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F73988-4B43-496B-825E-CC5DBA90EA72}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{C50839E1-8DEC-4509-A440-77E90DB3D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{039ACD72-F708-468E-9C51-7D6F2F36E54D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{D8303F33-A3AC-4B5D-B105-B60CD2BFE9AD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8303F33-A3AC-4B5D-B105-B60CD2BFE9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1364,10 +1364,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1698,13 +1698,25 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
       <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="N14" s="1">
+        <v>85</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">

--- a/Asset Registry System (ARS)/DaSSCo ARS Phase 3 work status overview_20241211.xlsx
+++ b/Asset Registry System (ARS)/DaSSCo ARS Phase 3 work status overview_20241211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/btw897_ku_dk/Documents/DaSSCo-Tranche-1-work/Asset Registry System (ARS)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimstp/Documents/NHMD/docs/DaSSCo/github/DaSSCo-Tranche-1-work/Asset Registry System (ARS)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{C50839E1-8DEC-4509-A440-77E90DB3D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{039ACD72-F708-468E-9C51-7D6F2F36E54D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944514FF-3698-204F-8293-31421AA1181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8303F33-A3AC-4B5D-B105-B60CD2BFE9AD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23240" windowHeight="13140" xr2:uid="{D8303F33-A3AC-4B5D-B105-B60CD2BFE9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>Status</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Old est</t>
   </si>
 </sst>
 </file>
@@ -909,28 +912,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="20.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
-    <col min="7" max="8" width="20.6328125" customWidth="1"/>
+    <col min="1" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -958,8 +961,11 @@
       <c r="I3" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -988,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1117,7 +1123,7 @@
       </c>
       <c r="C9" s="14">
         <f t="shared" si="1"/>
-        <v>0.61111111111111116</v>
+        <v>0.64077669902912626</v>
       </c>
       <c r="D9" s="4">
         <v>45383</v>
@@ -1129,8 +1135,8 @@
         <v>289</v>
       </c>
       <c r="G9" s="6">
-        <f>'Hours by package'!G27+84</f>
-        <v>216</v>
+        <f>'Hours by package'!G27+74</f>
+        <v>206</v>
       </c>
       <c r="H9" s="3">
         <f>'Hours by package'!G27</f>
@@ -1138,10 +1144,10 @@
       </c>
       <c r="I9" s="38">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1184,7 @@
       </c>
       <c r="C11" s="14">
         <f t="shared" si="1"/>
-        <v>0.82854209445585214</v>
+        <v>0.87055016181229772</v>
       </c>
       <c r="D11" s="5">
         <v>45425</v>
@@ -1190,8 +1196,8 @@
         <v>68</v>
       </c>
       <c r="G11" s="3">
-        <f>'Hours by package'!I27+167</f>
-        <v>974</v>
+        <f>'Hours by package'!I27+120</f>
+        <v>927</v>
       </c>
       <c r="H11" s="3">
         <f>'Hours by package'!I27</f>
@@ -1199,10 +1205,13 @@
       </c>
       <c r="I11" s="38">
         <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J11">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>49</v>
       </c>
@@ -1247,14 +1256,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10">
         <f>(C5+C6+C9+C11)/4</f>
-        <v>0.7496032970343951</v>
+        <v>0.76752171085301035</v>
       </c>
       <c r="D14" s="11">
         <v>45261</v>
@@ -1268,7 +1277,7 @@
       </c>
       <c r="G14" s="9">
         <f>SUM(G5:G12)</f>
-        <v>1978.75</v>
+        <v>1921.75</v>
       </c>
       <c r="H14" s="9">
         <f>SUM(H5:H13)</f>
@@ -1276,10 +1285,10 @@
       </c>
       <c r="I14" s="38">
         <f t="shared" si="0"/>
-        <v>435.54999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>378.54999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>54</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>84.782733636363631</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1319,38 +1328,38 @@
         <v>2420000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="16">
         <f>(G14/F14)*100</f>
-        <v>104.19957872564507</v>
+        <v>101.19799894681411</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="16">
         <f>((G19+2200000)/2200000)*100</f>
-        <v>105.89359553627114</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+        <v>103.13083780858263</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="16">
         <f>(((Cost!H24/'Hours by consultant'!H24)*(G14-H14))+Cost!H24)-2200000</f>
-        <v>129659.10179796489</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>68878.431788817979</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="26" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="30">
         <f>G19-(2420000-2200000)</f>
-        <v>-90340.89820203511</v>
+        <v>-151121.56821118202</v>
       </c>
     </row>
   </sheetData>
@@ -1364,19 +1373,19 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>135.44999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1596,7 +1605,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1621,7 +1630,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1745,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1797,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1862,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1932,13 +1941,13 @@
       <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2011,7 +2020,7 @@
         <v>135.44999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2036,7 +2045,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>318.75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2132,7 +2141,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2208,7 +2217,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2218,7 +2227,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2228,7 +2237,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2238,7 +2247,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2248,7 +2257,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2258,7 +2267,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2268,7 +2277,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2287,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2288,7 +2297,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2298,7 +2307,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2308,10 +2317,10 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2364,18 +2373,18 @@
       <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="37"/>
-    <col min="2" max="5" width="12.6328125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="34"/>
-    <col min="7" max="7" width="11.90625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="37"/>
+    <col min="1" max="1" width="8.6640625" style="37"/>
+    <col min="2" max="5" width="12.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="34"/>
+    <col min="7" max="7" width="11.83203125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="36" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="34" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>14</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>78289.549999999988</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>172472.07</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
@@ -2472,7 +2481,7 @@
         <v>234473.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
@@ -2496,7 +2505,7 @@
         <v>334729.14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>426377.14999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>26</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>307701.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>30</v>
       </c>
@@ -2568,7 +2577,7 @@
         <v>80871.25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>31</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>35052.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>32</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>95040.63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>33</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>100212.55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>34</v>
       </c>
@@ -2650,7 +2659,7 @@
       </c>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="s">
         <v>35</v>
       </c>
@@ -2660,7 +2669,7 @@
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>36</v>
       </c>
@@ -2670,7 +2679,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>37</v>
       </c>
@@ -2680,7 +2689,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>38</v>
       </c>
@@ -2690,7 +2699,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>39</v>
       </c>
@@ -2700,7 +2709,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>40</v>
       </c>
@@ -2710,7 +2719,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="37" t="s">
         <v>41</v>
       </c>
@@ -2720,7 +2729,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>42</v>
       </c>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>43</v>
       </c>
@@ -2740,7 +2749,7 @@
       </c>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>44</v>
       </c>
@@ -2750,10 +2759,10 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>6</v>
       </c>
@@ -2803,12 +2812,12 @@
       <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>85</v>
       </c>
@@ -2822,7 +2831,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
@@ -2857,7 +2866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>58</v>
       </c>
@@ -2874,7 +2883,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>57</v>
       </c>
@@ -2891,7 +2900,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>56</v>
       </c>
@@ -2908,7 +2917,7 @@
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>59</v>
       </c>
